--- a/sensitivity-analysis/tables/table2-mice/mice-prob-se.xlsx
+++ b/sensitivity-analysis/tables/table2-mice/mice-prob-se.xlsx
@@ -31338,13 +31338,13 @@
         <v>-1.6378588299453576</v>
       </c>
       <c r="D4" s="70">
-        <v>0.23962944175528963</v>
+        <v>0.23962944175528966</v>
       </c>
       <c r="E4" s="73">
         <v>-2.1184773014449663</v>
       </c>
       <c r="F4" s="76">
-        <v>-1.1572403584457491</v>
+        <v>-1.1572403584457489</v>
       </c>
     </row>
     <row r="5">
@@ -31378,7 +31378,7 @@
         <v>-1.2005197369094744</v>
       </c>
       <c r="D6" s="104">
-        <v>0.22591126764176805</v>
+        <v>0.22591126764176811</v>
       </c>
       <c r="E6" s="107">
         <v>-1.6536211408922785</v>
@@ -31398,13 +31398,13 @@
         <v>-1.435545306306488</v>
       </c>
       <c r="D7" s="121">
-        <v>0.25353956831337882</v>
+        <v>0.25353956831337876</v>
       </c>
       <c r="E7" s="124">
-        <v>-1.9441584167458663</v>
+        <v>-1.9441584167458661</v>
       </c>
       <c r="F7" s="127">
-        <v>-0.92693219586710973</v>
+        <v>-0.92693219586710984</v>
       </c>
     </row>
     <row r="8">
@@ -31458,13 +31458,13 @@
         <v>-0.6124439548349071</v>
       </c>
       <c r="D10" s="172">
-        <v>0.5038049292065746</v>
+        <v>0.50380492920657471</v>
       </c>
       <c r="E10" s="175">
         <v>-1.6229498007216581</v>
       </c>
       <c r="F10" s="178">
-        <v>0.39806189105184375</v>
+        <v>0.39806189105184397</v>
       </c>
     </row>
     <row r="11">
@@ -31498,13 +31498,13 @@
         <v>-1.0730343969081564</v>
       </c>
       <c r="D12" s="206">
-        <v>0.35555193664334361</v>
+        <v>0.3555519366433435</v>
       </c>
       <c r="E12" s="209">
-        <v>-1.7861634354499194</v>
+        <v>-1.7861634354499192</v>
       </c>
       <c r="F12" s="212">
-        <v>-0.35990535836639337</v>
+        <v>-0.35990535836639359</v>
       </c>
     </row>
     <row r="13">
@@ -31518,7 +31518,7 @@
         <v>-1.6567172081997334</v>
       </c>
       <c r="D13" s="223">
-        <v>0.30854715304972935</v>
+        <v>0.30854715304972924</v>
       </c>
       <c r="E13" s="226">
         <v>-2.2755613853883063</v>
@@ -31558,13 +31558,13 @@
         <v>-1.327942695579615</v>
       </c>
       <c r="D15" s="257">
-        <v>0.24292349781618819</v>
+        <v>0.24292349781618799</v>
       </c>
       <c r="E15" s="260">
-        <v>-1.8151650323173056</v>
+        <v>-1.8151650323173054</v>
       </c>
       <c r="F15" s="263">
-        <v>-0.8407203588419242</v>
+        <v>-0.84072035884192453</v>
       </c>
     </row>
     <row r="16">
@@ -31578,13 +31578,13 @@
         <v>-1.3557176503263011</v>
       </c>
       <c r="D16" s="274">
-        <v>0.20897374969360416</v>
+        <v>0.20897374969360408</v>
       </c>
       <c r="E16" s="277">
-        <v>-1.7748580075513374</v>
+        <v>-1.7748580075513372</v>
       </c>
       <c r="F16" s="280">
-        <v>-0.93657729310126481</v>
+        <v>-0.93657729310126503</v>
       </c>
     </row>
     <row r="17">
@@ -31598,13 +31598,13 @@
         <v>-1.4022329175771415</v>
       </c>
       <c r="D17" s="291">
-        <v>0.31640832103749861</v>
+        <v>0.31640832103749855</v>
       </c>
       <c r="E17" s="294">
         <v>-2.0368983129395701</v>
       </c>
       <c r="F17" s="297">
-        <v>-0.76756752221471292</v>
+        <v>-0.76756752221471303</v>
       </c>
     </row>
     <row r="18">
@@ -31618,13 +31618,13 @@
         <v>-0.95806274591990037</v>
       </c>
       <c r="D18" s="308">
-        <v>0.31768245491829206</v>
+        <v>0.31768245491829195</v>
       </c>
       <c r="E18" s="311">
-        <v>-1.5952289872904806</v>
+        <v>-1.5952289872904801</v>
       </c>
       <c r="F18" s="314">
-        <v>-0.32089650454932028</v>
+        <v>-0.3208965045493205</v>
       </c>
     </row>
     <row r="19">
@@ -31698,13 +31698,13 @@
         <v>-0.77636938818641832</v>
       </c>
       <c r="D22" s="376">
-        <v>0.21629627740253282</v>
+        <v>0.21629627740253279</v>
       </c>
       <c r="E22" s="379">
         <v>-1.2102089892052057</v>
       </c>
       <c r="F22" s="382">
-        <v>-0.34252978716763094</v>
+        <v>-0.34252978716763099</v>
       </c>
     </row>
     <row r="23">
@@ -31738,13 +31738,13 @@
         <v>-1.5195441542567831</v>
       </c>
       <c r="D24" s="410">
-        <v>0.3362908614785865</v>
+        <v>0.33629086147858633</v>
       </c>
       <c r="E24" s="413">
-        <v>-2.1940311945928266</v>
+        <v>-2.1940311945928261</v>
       </c>
       <c r="F24" s="416">
-        <v>-0.84505711392073979</v>
+        <v>-0.84505711392074012</v>
       </c>
     </row>
     <row r="25">
@@ -31758,13 +31758,13 @@
         <v>-0.63838197086536419</v>
       </c>
       <c r="D25" s="427">
-        <v>0.2576184166503937</v>
+        <v>0.25761841665039348</v>
       </c>
       <c r="E25" s="430">
-        <v>-1.1550880414528732</v>
+        <v>-1.1550880414528728</v>
       </c>
       <c r="F25" s="433">
-        <v>-0.12167590027785524</v>
+        <v>-0.12167590027785569</v>
       </c>
     </row>
     <row r="26">
@@ -31818,7 +31818,7 @@
         <v>-1.3447390512034851</v>
       </c>
       <c r="D28" s="478">
-        <v>0.19731622914457553</v>
+        <v>0.19731622914457558</v>
       </c>
       <c r="E28" s="481">
         <v>-1.7404897565458952</v>
@@ -31858,13 +31858,13 @@
         <v>-1.4830066071920343</v>
       </c>
       <c r="D30" s="512">
-        <v>0.19993789476194909</v>
+        <v>0.19993789476194904</v>
       </c>
       <c r="E30" s="515">
-        <v>-1.8840155359309205</v>
+        <v>-1.8840155359309203</v>
       </c>
       <c r="F30" s="518">
-        <v>-1.081997678453148</v>
+        <v>-1.0819976784531482</v>
       </c>
     </row>
     <row r="31">
@@ -31898,13 +31898,13 @@
         <v>-1.5013186780201628</v>
       </c>
       <c r="D32" s="546">
-        <v>0.64768822500398016</v>
+        <v>0.64768822500398027</v>
       </c>
       <c r="E32" s="549">
         <v>-2.8004173136602981</v>
       </c>
       <c r="F32" s="552">
-        <v>-0.20222004238002755</v>
+        <v>-0.20222004238002733</v>
       </c>
     </row>
     <row r="33">
@@ -31918,13 +31918,13 @@
         <v>-1.3491878316576125</v>
       </c>
       <c r="D33" s="563">
-        <v>0.19554997979300123</v>
+        <v>0.19554997979300115</v>
       </c>
       <c r="E33" s="566">
         <v>-1.7414028362720906</v>
       </c>
       <c r="F33" s="569">
-        <v>-0.95697282704313436</v>
+        <v>-0.95697282704313447</v>
       </c>
     </row>
     <row r="34">
@@ -31938,13 +31938,13 @@
         <v>-1.3696050188587703</v>
       </c>
       <c r="D34" s="580">
-        <v>0.1984521447953774</v>
+        <v>0.19845214479537729</v>
       </c>
       <c r="E34" s="583">
-        <v>-1.7676363933674075</v>
+        <v>-1.7676363933674071</v>
       </c>
       <c r="F34" s="586">
-        <v>-0.97157364435013316</v>
+        <v>-0.97157364435013338</v>
       </c>
     </row>
     <row r="35">
@@ -31998,13 +31998,13 @@
         <v>-1.0933324247259697</v>
       </c>
       <c r="D37" s="631">
-        <v>0.24139969731660219</v>
+        <v>0.2413996973166021</v>
       </c>
       <c r="E37" s="634">
-        <v>-1.5782038214841467</v>
+        <v>-1.5782038214841465</v>
       </c>
       <c r="F37" s="637">
-        <v>-0.60846102796779267</v>
+        <v>-0.60846102796779289</v>
       </c>
     </row>
     <row r="38">
@@ -32018,7 +32018,7 @@
         <v>-1.3492162369248086</v>
       </c>
       <c r="D38" s="648">
-        <v>0.17839791091335064</v>
+        <v>0.17839791091335058</v>
       </c>
       <c r="E38" s="651">
         <v>-1.7070252374322574</v>
@@ -32127,7 +32127,7 @@
         <v>2.1974725902641383</v>
       </c>
       <c r="D4" s="747">
-        <v>0.32756057551116335</v>
+        <v>0.32756057551116341</v>
       </c>
       <c r="E4" s="750">
         <v>1.5404952656764261</v>
@@ -32167,13 +32167,13 @@
         <v>2.0947391390044006</v>
       </c>
       <c r="D6" s="781">
-        <v>0.2328433661067065</v>
+        <v>0.23284336610670656</v>
       </c>
       <c r="E6" s="784">
-        <v>1.6277331328222062</v>
+        <v>1.627733132822206</v>
       </c>
       <c r="F6" s="787">
-        <v>2.5617451451865949</v>
+        <v>2.5617451451865954</v>
       </c>
     </row>
     <row r="7">
@@ -32187,13 +32187,13 @@
         <v>2.8539250602355097</v>
       </c>
       <c r="D7" s="798">
-        <v>0.38748211403755206</v>
+        <v>0.38748211403755201</v>
       </c>
       <c r="E7" s="801">
-        <v>2.0767352281779425</v>
+        <v>2.076735228177943</v>
       </c>
       <c r="F7" s="804">
-        <v>3.6311148922930769</v>
+        <v>3.6311148922930765</v>
       </c>
     </row>
     <row r="8">
@@ -32267,10 +32267,10 @@
         <v>2.07655196606503</v>
       </c>
       <c r="D11" s="866">
-        <v>0.37925007727413595</v>
+        <v>0.37925007727413601</v>
       </c>
       <c r="E11" s="869">
-        <v>1.3159014448658635</v>
+        <v>1.3159014448658632</v>
       </c>
       <c r="F11" s="872">
         <v>2.8372024872641965</v>
@@ -32347,10 +32347,10 @@
         <v>2.1278967181458919</v>
       </c>
       <c r="D15" s="934">
-        <v>0.30399062286645623</v>
+        <v>0.30399062286645612</v>
       </c>
       <c r="E15" s="937">
-        <v>1.5181931774203938</v>
+        <v>1.5181931774203941</v>
       </c>
       <c r="F15" s="940">
         <v>2.7376002588713897</v>
@@ -32367,7 +32367,7 @@
         <v>2.5637981338078424</v>
       </c>
       <c r="D16" s="951">
-        <v>0.27243426319580577</v>
+        <v>0.27243426319580588</v>
       </c>
       <c r="E16" s="954">
         <v>2.0170976762246862</v>
@@ -32387,13 +32387,13 @@
         <v>2.0357575843307014</v>
       </c>
       <c r="D17" s="968">
-        <v>0.51788223436939385</v>
+        <v>0.51788223436939396</v>
       </c>
       <c r="E17" s="971">
-        <v>0.99644968677777568</v>
+        <v>0.99644968677777546</v>
       </c>
       <c r="F17" s="974">
-        <v>3.0750654818836272</v>
+        <v>3.0750654818836276</v>
       </c>
     </row>
     <row r="18">
@@ -32427,13 +32427,13 @@
         <v>2.5702283938555421</v>
       </c>
       <c r="D19" s="1002">
-        <v>0.36368591738559713</v>
+        <v>0.36368591738559725</v>
       </c>
       <c r="E19" s="1005">
-        <v>1.8407983070103038</v>
+        <v>1.8407983070103033</v>
       </c>
       <c r="F19" s="1008">
-        <v>3.2996584807007805</v>
+        <v>3.2996584807007809</v>
       </c>
     </row>
     <row r="20">
@@ -32447,13 +32447,13 @@
         <v>2.4899057674942342</v>
       </c>
       <c r="D20" s="1019">
-        <v>0.45213509566942728</v>
+        <v>0.45213509566942739</v>
       </c>
       <c r="E20" s="1022">
-        <v>1.5830743266260021</v>
+        <v>1.5830743266260019</v>
       </c>
       <c r="F20" s="1025">
-        <v>3.3967372083624663</v>
+        <v>3.3967372083624667</v>
       </c>
     </row>
     <row r="21">
@@ -32467,7 +32467,7 @@
         <v>1.7139644649966719</v>
       </c>
       <c r="D21" s="1036">
-        <v>0.23136158180048416</v>
+        <v>0.23136158180048422</v>
       </c>
       <c r="E21" s="1039">
         <v>1.24990298964061</v>
@@ -32527,13 +32527,13 @@
         <v>2.0287989160210413</v>
       </c>
       <c r="D24" s="1087">
-        <v>0.31608295571728351</v>
+        <v>0.31608295571728373</v>
       </c>
       <c r="E24" s="1090">
-        <v>1.3945440074787334</v>
+        <v>1.394544007478733</v>
       </c>
       <c r="F24" s="1093">
-        <v>2.6630538245633493</v>
+        <v>2.6630538245633497</v>
       </c>
     </row>
     <row r="25">
@@ -32587,7 +32587,7 @@
         <v>2.3158348766589119</v>
       </c>
       <c r="D27" s="1138">
-        <v>0.38496663472905085</v>
+        <v>0.38496663472905074</v>
       </c>
       <c r="E27" s="1141">
         <v>1.5437236038259918</v>
@@ -32607,7 +32607,7 @@
         <v>2.3480232628144853</v>
       </c>
       <c r="D28" s="1155">
-        <v>0.26968055608568792</v>
+        <v>0.26968055608568786</v>
       </c>
       <c r="E28" s="1158">
         <v>1.8071327848337284</v>
@@ -32647,7 +32647,7 @@
         <v>2.3086618619929462</v>
       </c>
       <c r="D30" s="1189">
-        <v>0.32556448040378638</v>
+        <v>0.32556448040378644</v>
       </c>
       <c r="E30" s="1192">
         <v>1.655672725010144</v>
@@ -32667,7 +32667,7 @@
         <v>2.7230729594393184</v>
       </c>
       <c r="D31" s="1206">
-        <v>0.43094686402288856</v>
+        <v>0.43094686402288862</v>
       </c>
       <c r="E31" s="1209">
         <v>1.8586648601221456</v>
@@ -32707,13 +32707,13 @@
         <v>2.4494033327876381</v>
       </c>
       <c r="D33" s="1240">
-        <v>0.2735961963065226</v>
+        <v>0.27359619630652232</v>
       </c>
       <c r="E33" s="1243">
-        <v>1.9006457265384622</v>
+        <v>1.9006457265384629</v>
       </c>
       <c r="F33" s="1246">
-        <v>2.998160939036814</v>
+        <v>2.9981609390368131</v>
       </c>
     </row>
     <row r="34">
@@ -32787,10 +32787,10 @@
         <v>2.3340339362019704</v>
       </c>
       <c r="D37" s="1308">
-        <v>0.37245611129231049</v>
+        <v>0.37245611129231043</v>
       </c>
       <c r="E37" s="1311">
-        <v>1.586347950752059</v>
+        <v>1.5863479507520593</v>
       </c>
       <c r="F37" s="1314">
         <v>3.0817199216518816</v>
@@ -32896,13 +32896,13 @@
         <v>0.24661553859955529</v>
       </c>
       <c r="D3" s="1407">
-        <v>0.26684486961311948</v>
+        <v>0.26684486961311954</v>
       </c>
       <c r="E3" s="1410">
-        <v>-0.28858674018186958</v>
+        <v>-0.28858674018186969</v>
       </c>
       <c r="F3" s="1413">
-        <v>0.78181781738098022</v>
+        <v>0.78181781738098033</v>
       </c>
     </row>
     <row r="4">
@@ -32936,13 +32936,13 @@
         <v>-0.13645227241465313</v>
       </c>
       <c r="D5" s="1441">
-        <v>0.25283297215086087</v>
+        <v>0.25283297215086092</v>
       </c>
       <c r="E5" s="1444">
-        <v>-0.64358328642358864</v>
+        <v>-0.64358328642358886</v>
       </c>
       <c r="F5" s="1447">
-        <v>0.37067874159428243</v>
+        <v>0.37067874159428255</v>
       </c>
     </row>
     <row r="6">
@@ -32956,13 +32956,13 @@
         <v>0.41830158934030859</v>
       </c>
       <c r="D6" s="1458">
-        <v>0.19436425502295424</v>
+        <v>0.19436425502295429</v>
       </c>
       <c r="E6" s="1461">
-        <v>0.028434009706409247</v>
+        <v>0.028434009706409136</v>
       </c>
       <c r="F6" s="1464">
-        <v>0.80816916897420787</v>
+        <v>0.8081691689742081</v>
       </c>
     </row>
     <row r="7">
@@ -32976,13 +32976,13 @@
         <v>0.41556295387710762</v>
       </c>
       <c r="D7" s="1475">
-        <v>0.21363787331842174</v>
+        <v>0.21363787331842171</v>
       </c>
       <c r="E7" s="1478">
-        <v>-0.013097556013982881</v>
+        <v>-0.013097556013982825</v>
       </c>
       <c r="F7" s="1481">
-        <v>0.84422346376819812</v>
+        <v>0.84422346376819801</v>
       </c>
     </row>
     <row r="8">
@@ -33056,13 +33056,13 @@
         <v>-0.082294466834593211</v>
       </c>
       <c r="D11" s="1543">
-        <v>0.26148824715588614</v>
+        <v>0.26148824715588626</v>
       </c>
       <c r="E11" s="1546">
-        <v>-0.60687422338121311</v>
+        <v>-0.60687422338121333</v>
       </c>
       <c r="F11" s="1549">
-        <v>0.44228528971202674</v>
+        <v>0.44228528971202696</v>
       </c>
     </row>
     <row r="12">
@@ -33076,13 +33076,13 @@
         <v>0.77153681705492771</v>
       </c>
       <c r="D12" s="1560">
-        <v>0.40740770581522617</v>
+        <v>0.40740770581522628</v>
       </c>
       <c r="E12" s="1563">
-        <v>-0.045668576895573243</v>
+        <v>-0.045668576895573465</v>
       </c>
       <c r="F12" s="1566">
-        <v>1.5887422110054286</v>
+        <v>1.588742211005429</v>
       </c>
     </row>
     <row r="13">
@@ -33096,13 +33096,13 @@
         <v>0.051485150223014295</v>
       </c>
       <c r="D13" s="1577">
-        <v>0.22056617343080204</v>
+        <v>0.22056617343080229</v>
       </c>
       <c r="E13" s="1580">
-        <v>-0.39094008428593702</v>
+        <v>-0.39094008428593752</v>
       </c>
       <c r="F13" s="1583">
-        <v>0.49391038473196563</v>
+        <v>0.49391038473196613</v>
       </c>
     </row>
     <row r="14">
@@ -33116,13 +33116,13 @@
         <v>0.45493758560621328</v>
       </c>
       <c r="D14" s="1594">
-        <v>0.26743902883382215</v>
+        <v>0.26743902883382203</v>
       </c>
       <c r="E14" s="1597">
-        <v>-0.081473793513701487</v>
+        <v>-0.081473793513701265</v>
       </c>
       <c r="F14" s="1600">
-        <v>0.99134896472612799</v>
+        <v>0.99134896472612777</v>
       </c>
     </row>
     <row r="15">
@@ -33136,13 +33136,13 @@
         <v>0.04072514341887723</v>
       </c>
       <c r="D15" s="1611">
-        <v>0.18832977174348237</v>
+        <v>0.18832977174348223</v>
       </c>
       <c r="E15" s="1614">
-        <v>-0.33701880203432932</v>
+        <v>-0.33701880203432905</v>
       </c>
       <c r="F15" s="1617">
-        <v>0.41846908887208378</v>
+        <v>0.41846908887208351</v>
       </c>
     </row>
     <row r="16">
@@ -33156,10 +33156,10 @@
         <v>0.33422320597301941</v>
       </c>
       <c r="D16" s="1628">
-        <v>0.18050798120923378</v>
+        <v>0.18050798120923375</v>
       </c>
       <c r="E16" s="1631">
-        <v>-0.027855683934491837</v>
+        <v>-0.027855683934491782</v>
       </c>
       <c r="F16" s="1634">
         <v>0.6963020958805306</v>
@@ -33176,13 +33176,13 @@
         <v>-0.24498116081540972</v>
       </c>
       <c r="D17" s="1645">
-        <v>0.25461446027297779</v>
+        <v>0.25461446027297768</v>
       </c>
       <c r="E17" s="1648">
-        <v>-0.75587675820456601</v>
+        <v>-0.75587675820456579</v>
       </c>
       <c r="F17" s="1651">
-        <v>0.26591443657374664</v>
+        <v>0.26591443657374642</v>
       </c>
     </row>
     <row r="18">
@@ -33216,13 +33216,13 @@
         <v>0.098715339713261394</v>
       </c>
       <c r="D19" s="1679">
-        <v>0.23350679212782552</v>
+        <v>0.23350679212782546</v>
       </c>
       <c r="E19" s="1682">
-        <v>-0.36967196556410631</v>
+        <v>-0.3696719655641062</v>
       </c>
       <c r="F19" s="1685">
-        <v>0.56710264499062912</v>
+        <v>0.56710264499062901</v>
       </c>
     </row>
     <row r="20">
@@ -33256,13 +33256,13 @@
         <v>1.3957914857926488</v>
       </c>
       <c r="D21" s="1713">
-        <v>0.24762472678779271</v>
+        <v>0.2476247267877926</v>
       </c>
       <c r="E21" s="1716">
-        <v>0.89875078860118029</v>
+        <v>0.89875078860118052</v>
       </c>
       <c r="F21" s="1719">
-        <v>1.8928321829841173</v>
+        <v>1.892832182984117</v>
       </c>
     </row>
     <row r="22">
@@ -33276,13 +33276,13 @@
         <v>-0.95719827064763341</v>
       </c>
       <c r="D22" s="1730">
-        <v>0.22483597862426832</v>
+        <v>0.22483597862426824</v>
       </c>
       <c r="E22" s="1733">
-        <v>-1.4081717449428162</v>
+        <v>-1.4081717449428159</v>
       </c>
       <c r="F22" s="1736">
-        <v>-0.50622479635245077</v>
+        <v>-0.50622479635245088</v>
       </c>
     </row>
     <row r="23">
@@ -33316,13 +33316,13 @@
         <v>0.25806278399246124</v>
       </c>
       <c r="D24" s="1764">
-        <v>0.32916005135028992</v>
+        <v>0.32916005135028981</v>
       </c>
       <c r="E24" s="1767">
-        <v>-0.40218947862442461</v>
+        <v>-0.40218947862442439</v>
       </c>
       <c r="F24" s="1770">
-        <v>0.91831504660934704</v>
+        <v>0.91831504660934682</v>
       </c>
     </row>
     <row r="25">
@@ -33336,13 +33336,13 @@
         <v>0.080528071543475063</v>
       </c>
       <c r="D25" s="1781">
-        <v>0.2666648292584814</v>
+        <v>0.26666482925848134</v>
       </c>
       <c r="E25" s="1784">
-        <v>-0.45431291546480879</v>
+        <v>-0.45431291546480868</v>
       </c>
       <c r="F25" s="1787">
-        <v>0.61536905855175894</v>
+        <v>0.61536905855175883</v>
       </c>
     </row>
     <row r="26">
@@ -33356,13 +33356,13 @@
         <v>0.068689171700291179</v>
       </c>
       <c r="D26" s="1798">
-        <v>0.19235002730593453</v>
+        <v>0.19235002730593442</v>
       </c>
       <c r="E26" s="1801">
-        <v>-0.31711086383762344</v>
+        <v>-0.31711086383762321</v>
       </c>
       <c r="F26" s="1804">
-        <v>0.45448920723820585</v>
+        <v>0.45448920723820563</v>
       </c>
     </row>
     <row r="27">
@@ -33376,13 +33376,13 @@
         <v>0.37109650886537771</v>
       </c>
       <c r="D27" s="1815">
-        <v>0.23626290244854417</v>
+        <v>0.23626290244854412</v>
       </c>
       <c r="E27" s="1818">
-        <v>-0.10283481074039602</v>
+        <v>-0.10283481074039591</v>
       </c>
       <c r="F27" s="1821">
-        <v>0.84502782847115143</v>
+        <v>0.84502782847115132</v>
       </c>
     </row>
     <row r="28">
@@ -33436,13 +33436,13 @@
         <v>0.24851825739291686</v>
       </c>
       <c r="D30" s="1866">
-        <v>0.18101230577085148</v>
+        <v>0.18101230577085153</v>
       </c>
       <c r="E30" s="1869">
-        <v>-0.11461277584151267</v>
+        <v>-0.11461277584151278</v>
       </c>
       <c r="F30" s="1872">
-        <v>0.61164929062734641</v>
+        <v>0.61164929062734652</v>
       </c>
     </row>
     <row r="31">
@@ -33456,13 +33456,13 @@
         <v>0.058292089077865442</v>
       </c>
       <c r="D31" s="1883">
-        <v>0.33155519628758329</v>
+        <v>0.33155519628758334</v>
       </c>
       <c r="E31" s="1886">
-        <v>-0.60696842000512974</v>
+        <v>-0.60696842000512985</v>
       </c>
       <c r="F31" s="1889">
-        <v>0.72355259816086059</v>
+        <v>0.7235525981608607</v>
       </c>
     </row>
     <row r="32">
@@ -33496,13 +33496,13 @@
         <v>0.16895577077562493</v>
       </c>
       <c r="D33" s="1917">
-        <v>0.15008855799948348</v>
+        <v>0.15008855799948426</v>
       </c>
       <c r="E33" s="1920">
-        <v>-0.13208914994932849</v>
+        <v>-0.13208914994933005</v>
       </c>
       <c r="F33" s="1923">
-        <v>0.47000069150057833</v>
+        <v>0.47000069150057988</v>
       </c>
     </row>
     <row r="34">
@@ -33516,13 +33516,13 @@
         <v>0.30301132720635965</v>
       </c>
       <c r="D34" s="1934">
-        <v>0.15963963786885371</v>
+        <v>0.15963963786885357</v>
       </c>
       <c r="E34" s="1937">
-        <v>-0.017178805769433148</v>
+        <v>-0.01717880576943287</v>
       </c>
       <c r="F34" s="1940">
-        <v>0.6232014601821525</v>
+        <v>0.62320146018215217</v>
       </c>
     </row>
     <row r="35">
@@ -33536,13 +33536,13 @@
         <v>-0.41615923596428911</v>
       </c>
       <c r="D35" s="1951">
-        <v>0.42587246079674779</v>
+        <v>0.42587246079674768</v>
       </c>
       <c r="E35" s="1954">
-        <v>-1.2705929626161609</v>
+        <v>-1.2705929626161607</v>
       </c>
       <c r="F35" s="1957">
-        <v>0.43827449068758279</v>
+        <v>0.43827449068758256</v>
       </c>
     </row>
     <row r="36">
@@ -33556,13 +33556,13 @@
         <v>0.59859540648236953</v>
       </c>
       <c r="D36" s="1968">
-        <v>0.21759456038307604</v>
+        <v>0.21759456038307615</v>
       </c>
       <c r="E36" s="1971">
-        <v>0.16150584659713618</v>
+        <v>0.16150584659713596</v>
       </c>
       <c r="F36" s="1974">
-        <v>1.0356849663676029</v>
+        <v>1.0356849663676031</v>
       </c>
     </row>
     <row r="37">
@@ -33576,13 +33576,13 @@
         <v>-0.25874291846302566</v>
       </c>
       <c r="D37" s="1985">
-        <v>0.23866241578731109</v>
+        <v>0.23866241578731123</v>
       </c>
       <c r="E37" s="1988">
-        <v>-0.73924442461238826</v>
+        <v>-0.7392444246123886</v>
       </c>
       <c r="F37" s="1991">
-        <v>0.22175858768633694</v>
+        <v>0.22175858768633722</v>
       </c>
     </row>
     <row r="38">
@@ -33596,10 +33596,10 @@
         <v>0.2828070075162627</v>
       </c>
       <c r="D38" s="2002">
-        <v>0.15379875853962338</v>
+        <v>0.15379875853962341</v>
       </c>
       <c r="E38" s="2005">
-        <v>-0.025688941265885001</v>
+        <v>-0.025688941265885057</v>
       </c>
       <c r="F38" s="2008">
         <v>0.59130295629841045</v>
@@ -33616,13 +33616,13 @@
         <v>-0.31366425298391043</v>
       </c>
       <c r="D39" s="2023">
-        <v>0.33386418551451919</v>
+        <v>0.33386418551451924</v>
       </c>
       <c r="E39" s="2027">
-        <v>-0.98348554331654814</v>
+        <v>-0.98348554331654825</v>
       </c>
       <c r="F39" s="2031">
-        <v>0.35615703734872728</v>
+        <v>0.35615703734872739</v>
       </c>
     </row>
   </sheetData>

--- a/sensitivity-analysis/tables/table2-mice/mice-prob-se.xlsx
+++ b/sensitivity-analysis/tables/table2-mice/mice-prob-se.xlsx
@@ -31318,13 +31318,13 @@
         <v>-1.4370997102787524</v>
       </c>
       <c r="D3" s="53">
-        <v>0.29285563061938491</v>
+        <v>0.29285563061938485</v>
       </c>
       <c r="E3" s="56">
         <v>-2.0244756882793822</v>
       </c>
       <c r="F3" s="59">
-        <v>-0.84972373227812259</v>
+        <v>-0.8497237322781227</v>
       </c>
     </row>
     <row r="4">
@@ -31338,13 +31338,13 @@
         <v>-1.6378588299453576</v>
       </c>
       <c r="D4" s="70">
-        <v>0.23962944175528966</v>
+        <v>0.23962944175528963</v>
       </c>
       <c r="E4" s="73">
         <v>-2.1184773014449663</v>
       </c>
       <c r="F4" s="76">
-        <v>-1.1572403584457489</v>
+        <v>-1.1572403584457491</v>
       </c>
     </row>
     <row r="5">
@@ -31378,13 +31378,13 @@
         <v>-1.2005197369094744</v>
       </c>
       <c r="D6" s="104">
-        <v>0.22591126764176811</v>
+        <v>0.22591126764176822</v>
       </c>
       <c r="E6" s="107">
-        <v>-1.6536211408922785</v>
+        <v>-1.6536211408922787</v>
       </c>
       <c r="F6" s="110">
-        <v>-0.74741833292667037</v>
+        <v>-0.74741833292667015</v>
       </c>
     </row>
     <row r="7">
@@ -31458,13 +31458,13 @@
         <v>-0.6124439548349071</v>
       </c>
       <c r="D10" s="172">
-        <v>0.50380492920657471</v>
+        <v>0.5038049292065746</v>
       </c>
       <c r="E10" s="175">
         <v>-1.6229498007216581</v>
       </c>
       <c r="F10" s="178">
-        <v>0.39806189105184397</v>
+        <v>0.39806189105184375</v>
       </c>
     </row>
     <row r="11">
@@ -31538,13 +31538,13 @@
         <v>-1.4291043332921227</v>
       </c>
       <c r="D14" s="240">
-        <v>0.32806554532003562</v>
+        <v>0.32806554532003568</v>
       </c>
       <c r="E14" s="243">
         <v>-2.0870933788045876</v>
       </c>
       <c r="F14" s="246">
-        <v>-0.77111528777965799</v>
+        <v>-0.77111528777965788</v>
       </c>
     </row>
     <row r="15">
@@ -31558,13 +31558,13 @@
         <v>-1.327942695579615</v>
       </c>
       <c r="D15" s="257">
-        <v>0.24292349781618799</v>
+        <v>0.24292349781618813</v>
       </c>
       <c r="E15" s="260">
-        <v>-1.8151650323173054</v>
+        <v>-1.8151650323173056</v>
       </c>
       <c r="F15" s="263">
-        <v>-0.84072035884192453</v>
+        <v>-0.84072035884192431</v>
       </c>
     </row>
     <row r="16">
@@ -31618,13 +31618,13 @@
         <v>-0.95806274591990037</v>
       </c>
       <c r="D18" s="308">
-        <v>0.31768245491829195</v>
+        <v>0.317682454918292</v>
       </c>
       <c r="E18" s="311">
-        <v>-1.5952289872904801</v>
+        <v>-1.5952289872904803</v>
       </c>
       <c r="F18" s="314">
-        <v>-0.3208965045493205</v>
+        <v>-0.32089650454932039</v>
       </c>
     </row>
     <row r="19">
@@ -31638,7 +31638,7 @@
         <v>-1.7033034850581803</v>
       </c>
       <c r="D19" s="325">
-        <v>0.28411150987350992</v>
+        <v>0.28411150987350997</v>
       </c>
       <c r="E19" s="328">
         <v>-2.2731364131034963</v>
@@ -31698,13 +31698,13 @@
         <v>-0.77636938818641832</v>
       </c>
       <c r="D22" s="376">
-        <v>0.21629627740253279</v>
+        <v>0.21629627740253293</v>
       </c>
       <c r="E22" s="379">
-        <v>-1.2102089892052057</v>
+        <v>-1.2102089892052059</v>
       </c>
       <c r="F22" s="382">
-        <v>-0.34252978716763099</v>
+        <v>-0.34252978716763072</v>
       </c>
     </row>
     <row r="23">
@@ -31718,7 +31718,7 @@
         <v>-2.2973314065995791</v>
       </c>
       <c r="D23" s="393">
-        <v>0.38636932337131236</v>
+        <v>0.38636932337131247</v>
       </c>
       <c r="E23" s="396">
         <v>-3.0722602030394368</v>
@@ -31738,13 +31738,13 @@
         <v>-1.5195441542567831</v>
       </c>
       <c r="D24" s="410">
-        <v>0.33629086147858633</v>
+        <v>0.33629086147858644</v>
       </c>
       <c r="E24" s="413">
         <v>-2.1940311945928261</v>
       </c>
       <c r="F24" s="416">
-        <v>-0.84505711392074012</v>
+        <v>-0.8450571139207399</v>
       </c>
     </row>
     <row r="25">
@@ -31758,13 +31758,13 @@
         <v>-0.63838197086536419</v>
       </c>
       <c r="D25" s="427">
-        <v>0.25761841665039348</v>
+        <v>0.25761841665039387</v>
       </c>
       <c r="E25" s="430">
-        <v>-1.1550880414528728</v>
+        <v>-1.1550880414528735</v>
       </c>
       <c r="F25" s="433">
-        <v>-0.12167590027785569</v>
+        <v>-0.12167590027785491</v>
       </c>
     </row>
     <row r="26">
@@ -31798,7 +31798,7 @@
         <v>-1.5693653100010894</v>
       </c>
       <c r="D27" s="461">
-        <v>0.27728007238958541</v>
+        <v>0.27728007238958535</v>
       </c>
       <c r="E27" s="464">
         <v>-2.1254955776998146</v>
@@ -31818,13 +31818,13 @@
         <v>-1.3447390512034851</v>
       </c>
       <c r="D28" s="478">
-        <v>0.19731622914457558</v>
+        <v>0.19731622914457564</v>
       </c>
       <c r="E28" s="481">
-        <v>-1.7404897565458952</v>
+        <v>-1.7404897565458954</v>
       </c>
       <c r="F28" s="484">
-        <v>-0.94898834586107506</v>
+        <v>-0.94898834586107483</v>
       </c>
     </row>
     <row r="29">
@@ -31838,13 +31838,13 @@
         <v>-1.4393831662824526</v>
       </c>
       <c r="D29" s="495">
-        <v>0.36552966217755201</v>
+        <v>0.36552966217755206</v>
       </c>
       <c r="E29" s="498">
         <v>-2.1725152020900147</v>
       </c>
       <c r="F29" s="501">
-        <v>-0.70625113047489041</v>
+        <v>-0.7062511304748903</v>
       </c>
     </row>
     <row r="30">
@@ -31858,7 +31858,7 @@
         <v>-1.4830066071920343</v>
       </c>
       <c r="D30" s="512">
-        <v>0.19993789476194904</v>
+        <v>0.19993789476194901</v>
       </c>
       <c r="E30" s="515">
         <v>-1.8840155359309203</v>
@@ -31898,13 +31898,13 @@
         <v>-1.5013186780201628</v>
       </c>
       <c r="D32" s="546">
-        <v>0.64768822500398027</v>
+        <v>0.64768822500398016</v>
       </c>
       <c r="E32" s="549">
         <v>-2.8004173136602981</v>
       </c>
       <c r="F32" s="552">
-        <v>-0.20222004238002733</v>
+        <v>-0.20222004238002755</v>
       </c>
     </row>
     <row r="33">
@@ -31918,13 +31918,13 @@
         <v>-1.3491878316576125</v>
       </c>
       <c r="D33" s="563">
-        <v>0.19554997979300115</v>
+        <v>0.19554997979300129</v>
       </c>
       <c r="E33" s="566">
-        <v>-1.7414028362720906</v>
+        <v>-1.7414028362720908</v>
       </c>
       <c r="F33" s="569">
-        <v>-0.95697282704313447</v>
+        <v>-0.95697282704313413</v>
       </c>
     </row>
     <row r="34">
@@ -31938,13 +31938,13 @@
         <v>-1.3696050188587703</v>
       </c>
       <c r="D34" s="580">
-        <v>0.19845214479537729</v>
+        <v>0.19845214479537734</v>
       </c>
       <c r="E34" s="583">
-        <v>-1.7676363933674071</v>
+        <v>-1.7676363933674073</v>
       </c>
       <c r="F34" s="586">
-        <v>-0.97157364435013338</v>
+        <v>-0.97157364435013327</v>
       </c>
     </row>
     <row r="35">
@@ -31958,13 +31958,13 @@
         <v>-1.3483234526891357</v>
       </c>
       <c r="D35" s="597">
-        <v>0.44991604531909274</v>
+        <v>0.44991604531909279</v>
       </c>
       <c r="E35" s="600">
-        <v>-2.2507100503647988</v>
+        <v>-2.2507100503647992</v>
       </c>
       <c r="F35" s="603">
-        <v>-0.44593685501347247</v>
+        <v>-0.44593685501347236</v>
       </c>
     </row>
     <row r="36">
@@ -31998,13 +31998,13 @@
         <v>-1.0933324247259697</v>
       </c>
       <c r="D37" s="631">
-        <v>0.2413996973166021</v>
+        <v>0.24139969731660219</v>
       </c>
       <c r="E37" s="634">
-        <v>-1.5782038214841465</v>
+        <v>-1.5782038214841467</v>
       </c>
       <c r="F37" s="637">
-        <v>-0.60846102796779289</v>
+        <v>-0.60846102796779267</v>
       </c>
     </row>
     <row r="38">
@@ -32018,13 +32018,13 @@
         <v>-1.3492162369248086</v>
       </c>
       <c r="D38" s="648">
-        <v>0.17839791091335058</v>
+        <v>0.17839791091335053</v>
       </c>
       <c r="E38" s="651">
-        <v>-1.7070252374322574</v>
+        <v>-1.7070252374322572</v>
       </c>
       <c r="F38" s="654">
-        <v>-0.99140723641735984</v>
+        <v>-0.99140723641736006</v>
       </c>
     </row>
     <row r="39">
@@ -32107,7 +32107,7 @@
         <v>2.8462060326175238</v>
       </c>
       <c r="D3" s="730">
-        <v>0.41297133162120198</v>
+        <v>0.41297133162120192</v>
       </c>
       <c r="E3" s="733">
         <v>2.0179184977340308</v>
@@ -32127,7 +32127,7 @@
         <v>2.1974725902641383</v>
       </c>
       <c r="D4" s="747">
-        <v>0.32756057551116341</v>
+        <v>0.32756057551116335</v>
       </c>
       <c r="E4" s="750">
         <v>1.5404952656764261</v>
@@ -32147,7 +32147,7 @@
         <v>2.8761813955105873</v>
       </c>
       <c r="D5" s="764">
-        <v>0.49781591783834139</v>
+        <v>0.49781591783834134</v>
       </c>
       <c r="E5" s="767">
         <v>1.8777275802680089</v>
@@ -32167,13 +32167,13 @@
         <v>2.0947391390044006</v>
       </c>
       <c r="D6" s="781">
-        <v>0.23284336610670656</v>
+        <v>0.23284336610670645</v>
       </c>
       <c r="E6" s="784">
-        <v>1.627733132822206</v>
+        <v>1.6277331328222062</v>
       </c>
       <c r="F6" s="787">
-        <v>2.5617451451865954</v>
+        <v>2.5617451451865949</v>
       </c>
     </row>
     <row r="7">
@@ -32207,10 +32207,10 @@
         <v>1.5299633271858757</v>
       </c>
       <c r="D8" s="815">
-        <v>0.34619632000023903</v>
+        <v>0.34619632000023898</v>
       </c>
       <c r="E8" s="818">
-        <v>0.83524100490140618</v>
+        <v>0.83524100490140629</v>
       </c>
       <c r="F8" s="821">
         <v>2.2246856494703451</v>
@@ -32267,10 +32267,10 @@
         <v>2.07655196606503</v>
       </c>
       <c r="D11" s="866">
-        <v>0.37925007727413601</v>
+        <v>0.37925007727413595</v>
       </c>
       <c r="E11" s="869">
-        <v>1.3159014448658632</v>
+        <v>1.3159014448658635</v>
       </c>
       <c r="F11" s="872">
         <v>2.8372024872641965</v>
@@ -32347,7 +32347,7 @@
         <v>2.1278967181458919</v>
       </c>
       <c r="D15" s="934">
-        <v>0.30399062286645612</v>
+        <v>0.30399062286645617</v>
       </c>
       <c r="E15" s="937">
         <v>1.5181931774203941</v>
@@ -32387,13 +32387,13 @@
         <v>2.0357575843307014</v>
       </c>
       <c r="D17" s="968">
-        <v>0.51788223436939396</v>
+        <v>0.51788223436939385</v>
       </c>
       <c r="E17" s="971">
-        <v>0.99644968677777546</v>
+        <v>0.99644968677777568</v>
       </c>
       <c r="F17" s="974">
-        <v>3.0750654818836276</v>
+        <v>3.0750654818836272</v>
       </c>
     </row>
     <row r="18">
@@ -32407,13 +32407,13 @@
         <v>2.0645581484726319</v>
       </c>
       <c r="D18" s="985">
-        <v>0.30122371115793684</v>
+        <v>0.30122371115793689</v>
       </c>
       <c r="E18" s="988">
-        <v>1.4603871317594528</v>
+        <v>1.4603871317594526</v>
       </c>
       <c r="F18" s="991">
-        <v>2.6687291651858107</v>
+        <v>2.6687291651858112</v>
       </c>
     </row>
     <row r="19">
@@ -32427,13 +32427,13 @@
         <v>2.5702283938555421</v>
       </c>
       <c r="D19" s="1002">
-        <v>0.36368591738559725</v>
+        <v>0.36368591738559719</v>
       </c>
       <c r="E19" s="1005">
-        <v>1.8407983070103033</v>
+        <v>1.8407983070103036</v>
       </c>
       <c r="F19" s="1008">
-        <v>3.2996584807007809</v>
+        <v>3.2996584807007805</v>
       </c>
     </row>
     <row r="20">
@@ -32447,13 +32447,13 @@
         <v>2.4899057674942342</v>
       </c>
       <c r="D20" s="1019">
-        <v>0.45213509566942739</v>
+        <v>0.45213509566942728</v>
       </c>
       <c r="E20" s="1022">
-        <v>1.5830743266260019</v>
+        <v>1.5830743266260021</v>
       </c>
       <c r="F20" s="1025">
-        <v>3.3967372083624667</v>
+        <v>3.3967372083624663</v>
       </c>
     </row>
     <row r="21">
@@ -32467,13 +32467,13 @@
         <v>1.7139644649966719</v>
       </c>
       <c r="D21" s="1036">
-        <v>0.23136158180048422</v>
+        <v>0.23136158180048438</v>
       </c>
       <c r="E21" s="1039">
-        <v>1.24990298964061</v>
+        <v>1.2499029896406095</v>
       </c>
       <c r="F21" s="1042">
-        <v>2.1780259403527338</v>
+        <v>2.1780259403527342</v>
       </c>
     </row>
     <row r="22">
@@ -32487,7 +32487,7 @@
         <v>2.9968250611221028</v>
       </c>
       <c r="D22" s="1053">
-        <v>0.47566698575906019</v>
+        <v>0.47566698575906025</v>
       </c>
       <c r="E22" s="1056">
         <v>2.0427908477526397</v>
@@ -32527,7 +32527,7 @@
         <v>2.0287989160210413</v>
       </c>
       <c r="D24" s="1087">
-        <v>0.31608295571728373</v>
+        <v>0.31608295571728379</v>
       </c>
       <c r="E24" s="1090">
         <v>1.394544007478733</v>
@@ -32547,13 +32547,13 @@
         <v>2.2526452221635358</v>
       </c>
       <c r="D25" s="1104">
-        <v>0.36001459209690528</v>
+        <v>0.36001459209690539</v>
       </c>
       <c r="E25" s="1107">
-        <v>1.5302584098720686</v>
+        <v>1.5302584098720682</v>
       </c>
       <c r="F25" s="1110">
-        <v>2.975032034455003</v>
+        <v>2.9750320344550034</v>
       </c>
     </row>
     <row r="26">
@@ -32587,7 +32587,7 @@
         <v>2.3158348766589119</v>
       </c>
       <c r="D27" s="1138">
-        <v>0.38496663472905074</v>
+        <v>0.38496663472905085</v>
       </c>
       <c r="E27" s="1141">
         <v>1.5437236038259918</v>
@@ -32607,7 +32607,7 @@
         <v>2.3480232628144853</v>
       </c>
       <c r="D28" s="1155">
-        <v>0.26968055608568786</v>
+        <v>0.26968055608568792</v>
       </c>
       <c r="E28" s="1158">
         <v>1.8071327848337284</v>
@@ -32627,10 +32627,10 @@
         <v>2.7001918034619523</v>
       </c>
       <c r="D29" s="1172">
-        <v>0.70609551596983744</v>
+        <v>0.70609551596983733</v>
       </c>
       <c r="E29" s="1175">
-        <v>1.2839963809675849</v>
+        <v>1.2839963809675852</v>
       </c>
       <c r="F29" s="1178">
         <v>4.1163872259563199</v>
@@ -32707,10 +32707,10 @@
         <v>2.4494033327876381</v>
       </c>
       <c r="D33" s="1240">
-        <v>0.27359619630652232</v>
+        <v>0.27359619630652227</v>
       </c>
       <c r="E33" s="1243">
-        <v>1.9006457265384629</v>
+        <v>1.9006457265384631</v>
       </c>
       <c r="F33" s="1246">
         <v>2.9981609390368131</v>
@@ -32727,13 +32727,13 @@
         <v>2.5674216711519113</v>
       </c>
       <c r="D34" s="1257">
-        <v>0.2575467954605602</v>
+        <v>0.25754679546056014</v>
       </c>
       <c r="E34" s="1260">
-        <v>2.0508393827275828</v>
+        <v>2.0508393827275833</v>
       </c>
       <c r="F34" s="1263">
-        <v>3.0840039595762399</v>
+        <v>3.0840039595762394</v>
       </c>
     </row>
     <row r="35">
@@ -32747,13 +32747,13 @@
         <v>1.8293631380323301</v>
       </c>
       <c r="D35" s="1274">
-        <v>0.57006473037966388</v>
+        <v>0.57006473037966399</v>
       </c>
       <c r="E35" s="1277">
-        <v>0.68597660996893772</v>
+        <v>0.6859766099689375</v>
       </c>
       <c r="F35" s="1280">
-        <v>2.9727496660957224</v>
+        <v>2.9727496660957229</v>
       </c>
     </row>
     <row r="36">
@@ -32787,13 +32787,13 @@
         <v>2.3340339362019704</v>
       </c>
       <c r="D37" s="1308">
-        <v>0.37245611129231043</v>
+        <v>0.3724561112923106</v>
       </c>
       <c r="E37" s="1311">
-        <v>1.5863479507520593</v>
+        <v>1.5863479507520588</v>
       </c>
       <c r="F37" s="1314">
-        <v>3.0817199216518816</v>
+        <v>3.081719921651882</v>
       </c>
     </row>
     <row r="38">
@@ -32807,13 +32807,13 @@
         <v>2.6486117876406143</v>
       </c>
       <c r="D38" s="1325">
-        <v>0.32240703429720619</v>
+        <v>0.32240703429720613</v>
       </c>
       <c r="E38" s="1328">
-        <v>2.0019666282004986</v>
+        <v>2.0019666282004991</v>
       </c>
       <c r="F38" s="1331">
-        <v>3.29525694708073</v>
+        <v>3.2952569470807296</v>
       </c>
     </row>
     <row r="39">
@@ -32896,13 +32896,13 @@
         <v>0.24661553859955529</v>
       </c>
       <c r="D3" s="1407">
-        <v>0.26684486961311954</v>
+        <v>0.2668448696131196</v>
       </c>
       <c r="E3" s="1410">
-        <v>-0.28858674018186969</v>
+        <v>-0.28858674018186981</v>
       </c>
       <c r="F3" s="1413">
-        <v>0.78181781738098033</v>
+        <v>0.78181781738098044</v>
       </c>
     </row>
     <row r="4">
@@ -32916,13 +32916,13 @@
         <v>-0.023970553782249514</v>
       </c>
       <c r="D4" s="1424">
-        <v>0.22384571800758213</v>
+        <v>0.22384571800758227</v>
       </c>
       <c r="E4" s="1427">
-        <v>-0.47312872383241844</v>
+        <v>-0.47312872383241872</v>
       </c>
       <c r="F4" s="1430">
-        <v>0.42518761626791945</v>
+        <v>0.42518761626791973</v>
       </c>
     </row>
     <row r="5">
@@ -32936,13 +32936,13 @@
         <v>-0.13645227241465313</v>
       </c>
       <c r="D5" s="1441">
-        <v>0.25283297215086092</v>
+        <v>0.25283297215086098</v>
       </c>
       <c r="E5" s="1444">
         <v>-0.64358328642358886</v>
       </c>
       <c r="F5" s="1447">
-        <v>0.37067874159428255</v>
+        <v>0.37067874159428266</v>
       </c>
     </row>
     <row r="6">
@@ -32956,13 +32956,13 @@
         <v>0.41830158934030859</v>
       </c>
       <c r="D6" s="1458">
-        <v>0.19436425502295429</v>
+        <v>0.1943642550229544</v>
       </c>
       <c r="E6" s="1461">
-        <v>0.028434009706409136</v>
+        <v>0.028434009706408914</v>
       </c>
       <c r="F6" s="1464">
-        <v>0.8081691689742081</v>
+        <v>0.80816916897420832</v>
       </c>
     </row>
     <row r="7">
@@ -32976,13 +32976,13 @@
         <v>0.41556295387710762</v>
       </c>
       <c r="D7" s="1475">
-        <v>0.21363787331842171</v>
+        <v>0.21363787331842179</v>
       </c>
       <c r="E7" s="1478">
-        <v>-0.013097556013982825</v>
+        <v>-0.013097556013982992</v>
       </c>
       <c r="F7" s="1481">
-        <v>0.84422346376819801</v>
+        <v>0.84422346376819823</v>
       </c>
     </row>
     <row r="8">
@@ -32996,13 +32996,13 @@
         <v>0.031242639733068955</v>
       </c>
       <c r="D8" s="1492">
-        <v>0.33563133059115435</v>
+        <v>0.33563133059115446</v>
       </c>
       <c r="E8" s="1495">
-        <v>-0.64336926952465345</v>
+        <v>-0.64336926952465368</v>
       </c>
       <c r="F8" s="1498">
-        <v>0.70585454899079136</v>
+        <v>0.70585454899079159</v>
       </c>
     </row>
     <row r="9">
@@ -33056,13 +33056,13 @@
         <v>-0.082294466834593211</v>
       </c>
       <c r="D11" s="1543">
-        <v>0.26148824715588626</v>
+        <v>0.26148824715588614</v>
       </c>
       <c r="E11" s="1546">
-        <v>-0.60687422338121333</v>
+        <v>-0.60687422338121311</v>
       </c>
       <c r="F11" s="1549">
-        <v>0.44228528971202696</v>
+        <v>0.44228528971202674</v>
       </c>
     </row>
     <row r="12">
@@ -33076,13 +33076,13 @@
         <v>0.77153681705492771</v>
       </c>
       <c r="D12" s="1560">
-        <v>0.40740770581522628</v>
+        <v>0.40740770581522623</v>
       </c>
       <c r="E12" s="1563">
-        <v>-0.045668576895573465</v>
+        <v>-0.045668576895573354</v>
       </c>
       <c r="F12" s="1566">
-        <v>1.588742211005429</v>
+        <v>1.5887422110054288</v>
       </c>
     </row>
     <row r="13">
@@ -33096,13 +33096,13 @@
         <v>0.051485150223014295</v>
       </c>
       <c r="D13" s="1577">
-        <v>0.22056617343080229</v>
+        <v>0.22056617343080215</v>
       </c>
       <c r="E13" s="1580">
-        <v>-0.39094008428593752</v>
+        <v>-0.39094008428593724</v>
       </c>
       <c r="F13" s="1583">
-        <v>0.49391038473196613</v>
+        <v>0.49391038473196586</v>
       </c>
     </row>
     <row r="14">
@@ -33116,13 +33116,13 @@
         <v>0.45493758560621328</v>
       </c>
       <c r="D14" s="1594">
-        <v>0.26743902883382203</v>
+        <v>0.26743902883382215</v>
       </c>
       <c r="E14" s="1597">
-        <v>-0.081473793513701265</v>
+        <v>-0.081473793513701487</v>
       </c>
       <c r="F14" s="1600">
-        <v>0.99134896472612777</v>
+        <v>0.99134896472612799</v>
       </c>
     </row>
     <row r="15">
@@ -33136,13 +33136,13 @@
         <v>0.04072514341887723</v>
       </c>
       <c r="D15" s="1611">
-        <v>0.18832977174348223</v>
+        <v>0.18832977174348248</v>
       </c>
       <c r="E15" s="1614">
-        <v>-0.33701880203432905</v>
+        <v>-0.33701880203432955</v>
       </c>
       <c r="F15" s="1617">
-        <v>0.41846908887208351</v>
+        <v>0.41846908887208401</v>
       </c>
     </row>
     <row r="16">
@@ -33156,10 +33156,10 @@
         <v>0.33422320597301941</v>
       </c>
       <c r="D16" s="1628">
-        <v>0.18050798120923375</v>
+        <v>0.18050798120923378</v>
       </c>
       <c r="E16" s="1631">
-        <v>-0.027855683934491782</v>
+        <v>-0.027855683934491837</v>
       </c>
       <c r="F16" s="1634">
         <v>0.6963020958805306</v>
@@ -33216,10 +33216,10 @@
         <v>0.098715339713261394</v>
       </c>
       <c r="D19" s="1679">
-        <v>0.23350679212782546</v>
+        <v>0.23350679212782549</v>
       </c>
       <c r="E19" s="1682">
-        <v>-0.3696719655641062</v>
+        <v>-0.36967196556410625</v>
       </c>
       <c r="F19" s="1685">
         <v>0.56710264499062901</v>
@@ -33236,10 +33236,10 @@
         <v>0.40491910499049466</v>
       </c>
       <c r="D20" s="1696">
-        <v>0.31637184315214723</v>
+        <v>0.31637184315214728</v>
       </c>
       <c r="E20" s="1699">
-        <v>-0.2296248838586934</v>
+        <v>-0.22962488385869351</v>
       </c>
       <c r="F20" s="1702">
         <v>1.0394630938396827</v>
@@ -33256,13 +33256,13 @@
         <v>1.3957914857926488</v>
       </c>
       <c r="D21" s="1713">
-        <v>0.2476247267877926</v>
+        <v>0.24762472678779271</v>
       </c>
       <c r="E21" s="1716">
-        <v>0.89875078860118052</v>
+        <v>0.89875078860118029</v>
       </c>
       <c r="F21" s="1719">
-        <v>1.892832182984117</v>
+        <v>1.8928321829841173</v>
       </c>
     </row>
     <row r="22">
@@ -33276,13 +33276,13 @@
         <v>-0.95719827064763341</v>
       </c>
       <c r="D22" s="1730">
-        <v>0.22483597862426824</v>
+        <v>0.22483597862426838</v>
       </c>
       <c r="E22" s="1733">
-        <v>-1.4081717449428159</v>
+        <v>-1.4081717449428162</v>
       </c>
       <c r="F22" s="1736">
-        <v>-0.50622479635245088</v>
+        <v>-0.50622479635245066</v>
       </c>
     </row>
     <row r="23">
@@ -33296,13 +33296,13 @@
         <v>0.22626329415183713</v>
       </c>
       <c r="D23" s="1747">
-        <v>0.25220056144141934</v>
+        <v>0.25220056144141939</v>
       </c>
       <c r="E23" s="1750">
-        <v>-0.27960280030426532</v>
+        <v>-0.27960280030426543</v>
       </c>
       <c r="F23" s="1753">
-        <v>0.73212938860793952</v>
+        <v>0.73212938860793964</v>
       </c>
     </row>
     <row r="24">
@@ -33316,13 +33316,13 @@
         <v>0.25806278399246124</v>
       </c>
       <c r="D24" s="1764">
-        <v>0.32916005135028981</v>
+        <v>0.32916005135028992</v>
       </c>
       <c r="E24" s="1767">
-        <v>-0.40218947862442439</v>
+        <v>-0.40218947862442461</v>
       </c>
       <c r="F24" s="1770">
-        <v>0.91831504660934682</v>
+        <v>0.91831504660934704</v>
       </c>
     </row>
     <row r="25">
@@ -33336,13 +33336,13 @@
         <v>0.080528071543475063</v>
       </c>
       <c r="D25" s="1781">
-        <v>0.26666482925848134</v>
+        <v>0.2666648292584814</v>
       </c>
       <c r="E25" s="1784">
-        <v>-0.45431291546480868</v>
+        <v>-0.45431291546480879</v>
       </c>
       <c r="F25" s="1787">
-        <v>0.61536905855175883</v>
+        <v>0.61536905855175894</v>
       </c>
     </row>
     <row r="26">
@@ -33416,13 +33416,13 @@
         <v>0.4635004734500246</v>
       </c>
       <c r="D29" s="1849">
-        <v>0.41119757706126636</v>
+        <v>0.41119757706126631</v>
       </c>
       <c r="E29" s="1852">
-        <v>-0.36132372442510691</v>
+        <v>-0.3613237244251068</v>
       </c>
       <c r="F29" s="1855">
-        <v>1.2883246713251562</v>
+        <v>1.2883246713251559</v>
       </c>
     </row>
     <row r="30">
@@ -33436,13 +33436,13 @@
         <v>0.24851825739291686</v>
       </c>
       <c r="D30" s="1866">
-        <v>0.18101230577085153</v>
+        <v>0.18101230577085145</v>
       </c>
       <c r="E30" s="1869">
-        <v>-0.11461277584151278</v>
+        <v>-0.11461277584151261</v>
       </c>
       <c r="F30" s="1872">
-        <v>0.61164929062734652</v>
+        <v>0.6116492906273463</v>
       </c>
     </row>
     <row r="31">
@@ -33456,13 +33456,13 @@
         <v>0.058292089077865442</v>
       </c>
       <c r="D31" s="1883">
-        <v>0.33155519628758334</v>
+        <v>0.33155519628758329</v>
       </c>
       <c r="E31" s="1886">
-        <v>-0.60696842000512985</v>
+        <v>-0.60696842000512974</v>
       </c>
       <c r="F31" s="1889">
-        <v>0.7235525981608607</v>
+        <v>0.72355259816086059</v>
       </c>
     </row>
     <row r="32">
@@ -33496,13 +33496,13 @@
         <v>0.16895577077562493</v>
       </c>
       <c r="D33" s="1917">
-        <v>0.15008855799948426</v>
+        <v>0.15008855799948445</v>
       </c>
       <c r="E33" s="1920">
-        <v>-0.13208914994933005</v>
+        <v>-0.13208914994933044</v>
       </c>
       <c r="F33" s="1923">
-        <v>0.47000069150057988</v>
+        <v>0.47000069150058033</v>
       </c>
     </row>
     <row r="34">
@@ -33516,13 +33516,13 @@
         <v>0.30301132720635965</v>
       </c>
       <c r="D34" s="1934">
-        <v>0.15963963786885357</v>
+        <v>0.1596396378688536</v>
       </c>
       <c r="E34" s="1937">
-        <v>-0.01717880576943287</v>
+        <v>-0.017178805769432925</v>
       </c>
       <c r="F34" s="1940">
-        <v>0.62320146018215217</v>
+        <v>0.62320146018215228</v>
       </c>
     </row>
     <row r="35">
@@ -33556,13 +33556,13 @@
         <v>0.59859540648236953</v>
       </c>
       <c r="D36" s="1968">
-        <v>0.21759456038307615</v>
+        <v>0.21759456038307606</v>
       </c>
       <c r="E36" s="1971">
-        <v>0.16150584659713596</v>
+        <v>0.16150584659713613</v>
       </c>
       <c r="F36" s="1974">
-        <v>1.0356849663676031</v>
+        <v>1.0356849663676029</v>
       </c>
     </row>
     <row r="37">
@@ -33576,13 +33576,13 @@
         <v>-0.25874291846302566</v>
       </c>
       <c r="D37" s="1985">
-        <v>0.23866241578731123</v>
+        <v>0.23866241578731109</v>
       </c>
       <c r="E37" s="1988">
-        <v>-0.7392444246123886</v>
+        <v>-0.73924442461238826</v>
       </c>
       <c r="F37" s="1991">
-        <v>0.22175858768633722</v>
+        <v>0.22175858768633694</v>
       </c>
     </row>
     <row r="38">
@@ -33596,10 +33596,10 @@
         <v>0.2828070075162627</v>
       </c>
       <c r="D38" s="2002">
-        <v>0.15379875853962341</v>
+        <v>0.15379875853962338</v>
       </c>
       <c r="E38" s="2005">
-        <v>-0.025688941265885057</v>
+        <v>-0.025688941265885001</v>
       </c>
       <c r="F38" s="2008">
         <v>0.59130295629841045</v>
